--- a/biology/Médecine/Victor_Morax/Victor_Morax.xlsx
+++ b/biology/Médecine/Victor_Morax/Victor_Morax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Morax, né le 16 mars 1866 à Morges et mort à Paris le 14 mai 1935, est un médecin, ophtalmologiste et ophtalmologue vaudois. Il a découvert le bacille Moraxella lacunata, qui est à l'origine de la conjonctivite chronique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fréquenté les écoles secondaires et le gymnase de Morges et Lausanne, il continue ses études à Fribourg-en-Brisgau, où il suit un semestre de chimie biologique, puis à Paris, où son compatriote et ami Alexandre Yersin l'entraîne à l'Institut Pasteur. Là, il prend goût aux recherches bactériologiques, qu'il n'abandonnera pas toute sa vie durant. Naturalisé Français, Victor Morax est nommé successivement externe, puis, en 1890, interne des Hôpitaux. Autant clinicien qu'ophtalmologue, bactériologue ou chirurgien, il obtient son doctorat en médecine en 1894 à Paris.
 Tout en étant interne des hôpitaux, Victor Morax fait plusieurs stages à l'Institut Pasteur. En 1896, il découvre le diplo-bacille Moraxella lacunata, à l'origine de la conjonctivite chronique. Cette maladie est appelée tantôt « maladie de Morax » tantôt « conjonctivite d'Axenfeld », du nom de l'ophtalmologiste allemand Theodor Axenfeld (1867-1930), qui a découvert le bacille au cours de la même période que Morax.
